--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Documents\GitHub\DIU20\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD929866-CC71-4F21-AF9C-3B9FA37332FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7B34D9-E690-4DF4-A5DF-99E7B0E20B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="228">
   <si>
     <t>Usability guidelines</t>
   </si>
@@ -1894,6 +1894,42 @@
   <si>
     <t>Los errores mantienen los datos ya introducidos y simplementen marcan que campos hay que corregir.</t>
   </si>
+  <si>
+    <t>La página tiene muchos elementos multimedia adecuados. Consideramos que el tutorial introductorio al final de la página se queda escueto. Se dejan muchos espacios en blanco y la información es escasa.</t>
+  </si>
+  <si>
+    <t>La página no incluye enlaces a otros sitios externos que no sean del dominio de la empresa Badi. No encontramos enlaces de interés para contrastar con otras webs.</t>
+  </si>
+  <si>
+    <t>El lenguaje está claramente enfocado a un usuario joven. El lenguaje es poco técnico, los tonos de la página no son saturados y las letras tienen una tipografía clara y con un tamaño suficientemente grande</t>
+  </si>
+  <si>
+    <t>Sí, los conceptos más técnicos como las direcciones, tipo de alojamiento o comodidades son términos que se repiten y se ilustran para entender con facilidad su significado.</t>
+  </si>
+  <si>
+    <t>En todo momento somos conscientes de lo que estamos haciendo con un solo vistazo a la página. Los rellenables destacan entre el resto de información y esta se estructura con elementos visuales que ayudan a la comprensión en todo momento.</t>
+  </si>
+  <si>
+    <t>En la web podemos acceder a una pequeña sección de ayuda, donde las explicaciones son más extensas y los conceptos importantes están resaltados. La opción de ayuda del menú nos permite abrir un chat en tiempo real con asistentes para resolver todas las dudas.</t>
+  </si>
+  <si>
+    <t>El manual y las preguntas frecuentes son claras y amigables al usuario. Tienen una buena estructuración, además de distintos tamaños de letra e iconos para ayudarnos a entender la explicación.</t>
+  </si>
+  <si>
+    <t>Desde la web puedo acceder simultaneamente a la ventana de chat en línea para resolver mis dudas al mismo tiempo que utilizo el servicio. Sin embargo, en la app debemos salir de la búsqueda y acceder desde el perfil a la ayuda para abrir este chat o cualquier otra opción de ayuda.</t>
+  </si>
+  <si>
+    <t>Como cabe de esperar en una web, en el pie de página encontramos opciones para contactar por correo, además de tener acceso a todas las redes sociales de Badi. En la app, sin embargo, no podemos acceder estas RR.SS, pero el resto de las opciones coinciden.</t>
+  </si>
+  <si>
+    <t>Los elementos multimedia que más recursos podrían consumir en la web: los mapas, vídeos y las fotos de las habitaciones, se cargan al momento. Ningún otro elemento tiene una latencia elevada como para empeorar la experiencia del usuario.</t>
+  </si>
+  <si>
+    <t>La página no se queda colgada y todos los enlaces externos funcionan correctamente en todo momento.</t>
+  </si>
+  <si>
+    <t>La web es responsive, se adapta a todos los navegadores y a diferentes tamaños de pantalla y resoluciones sin ningún problema.</t>
+  </si>
 </sst>
 </file>
 
@@ -1902,7 +1938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2076,6 +2112,47 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bliss 2 medium"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bliss 2 medium"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Bliss 2 medium"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2091,7 +2168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2289,11 +2366,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2485,9 +2577,6 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2515,13 +2604,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2539,18 +2628,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2866,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2888,17 +3007,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="4"/>
       <c r="K1" s="6"/>
       <c r="L1" s="5"/>
@@ -2945,10 +3064,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -3075,19 +3194,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="99" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -3112,11 +3231,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -5504,20 +5623,22 @@
         <v>156</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="e">
+      <c r="D89" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="102"/>
+      <c r="F89" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G89" s="1" t="e">
+      <c r="G89" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H89" s="1"/>
-      <c r="I89" s="44"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="103" t="s">
+        <v>216</v>
+      </c>
       <c r="J89" s="1"/>
       <c r="K89" s="45">
         <v>5</v>
@@ -5528,27 +5649,27 @@
       </c>
       <c r="M89" s="47">
         <f>VLOOKUP(D89,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N89" s="47">
         <f>M89*L89</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O89" s="47">
         <f>IF(M89=0,0,L89*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="12" customHeight="1">
       <c r="A90" s="40"/>
       <c r="B90" s="49"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="102"/>
+      <c r="I90" s="102"/>
       <c r="J90" s="1"/>
       <c r="K90" s="45"/>
       <c r="L90" s="46"/>
@@ -5565,20 +5686,22 @@
         <v>158</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="e">
+      <c r="D91" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G91" s="1" t="e">
+      <c r="G91" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="44"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="103" t="s">
+        <v>217</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="45">
         <v>2</v>
@@ -5589,27 +5712,27 @@
       </c>
       <c r="M91" s="47">
         <f>VLOOKUP(D91,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" s="47">
         <f>M91*L91</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O91" s="47">
         <f>IF(M91=0,0,L91*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="12" customHeight="1">
       <c r="A92" s="40"/>
       <c r="B92" s="49"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="102"/>
+      <c r="F92" s="102"/>
+      <c r="G92" s="102"/>
+      <c r="H92" s="102"/>
+      <c r="I92" s="102"/>
       <c r="J92" s="1"/>
       <c r="K92" s="45"/>
       <c r="L92" s="46"/>
@@ -5626,20 +5749,22 @@
         <v>160</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1" t="e">
+      <c r="D93" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G93" s="1" t="e">
+      <c r="G93" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H93" s="1"/>
-      <c r="I93" s="44"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="103" t="s">
+        <v>218</v>
+      </c>
       <c r="J93" s="1"/>
       <c r="K93" s="45">
         <v>4</v>
@@ -5650,27 +5775,27 @@
       </c>
       <c r="M93" s="47">
         <f>VLOOKUP(D93,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N93" s="47">
         <f>M93*L93</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O93" s="47">
         <f>IF(M93=0,0,L93*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="12" customHeight="1">
       <c r="A94" s="40"/>
       <c r="B94" s="49"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="D94" s="104"/>
+      <c r="E94" s="102"/>
+      <c r="F94" s="102"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="102"/>
+      <c r="I94" s="102"/>
       <c r="J94" s="1"/>
       <c r="K94" s="45"/>
       <c r="L94" s="46"/>
@@ -5687,20 +5812,22 @@
         <v>162</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1" t="e">
+      <c r="D95" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="102"/>
+      <c r="F95" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G95" s="1" t="e">
+      <c r="G95" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="44"/>
+      <c r="H95" s="102"/>
+      <c r="I95" s="103" t="s">
+        <v>219</v>
+      </c>
       <c r="J95" s="1"/>
       <c r="K95" s="45">
         <v>3</v>
@@ -5711,27 +5838,27 @@
       </c>
       <c r="M95" s="47">
         <f>VLOOKUP(D95,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N95" s="47">
         <f>M95*L95</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O95" s="47">
         <f>IF(M95=0,0,L95*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="12" customHeight="1">
       <c r="A96" s="40"/>
       <c r="B96" s="49"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="D96" s="104"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="102"/>
+      <c r="I96" s="102"/>
       <c r="J96" s="1"/>
       <c r="K96" s="45"/>
       <c r="L96" s="46"/>
@@ -5748,20 +5875,22 @@
         <v>164</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1" t="e">
+      <c r="D97" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="102"/>
+      <c r="F97" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G97" s="1" t="e">
+      <c r="G97" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="44"/>
+      <c r="H97" s="102"/>
+      <c r="I97" s="103" t="s">
+        <v>220</v>
+      </c>
       <c r="J97" s="1"/>
       <c r="K97" s="45">
         <v>3</v>
@@ -5772,26 +5901,26 @@
       </c>
       <c r="M97" s="47">
         <f>VLOOKUP(D97,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N97" s="47">
         <f>M97*L97</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O97" s="47">
         <f>IF(M97=0,0,L97*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="12" customHeight="1">
       <c r="B98" s="32"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="D98" s="104"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="102"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="102"/>
+      <c r="I98" s="102"/>
       <c r="J98" s="1"/>
       <c r="K98" s="45"/>
       <c r="L98" s="46"/>
@@ -5804,12 +5933,12 @@
         <v>76</v>
       </c>
       <c r="C99" s="38"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="102"/>
+      <c r="I99" s="102"/>
       <c r="J99" s="1"/>
       <c r="K99" s="45"/>
       <c r="L99" s="46"/>
@@ -5820,12 +5949,12 @@
     <row r="100" spans="1:26" ht="14.25" customHeight="1">
       <c r="B100" s="56"/>
       <c r="C100" s="38"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="102"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="102"/>
+      <c r="I100" s="102"/>
       <c r="J100" s="1"/>
       <c r="K100" s="45"/>
       <c r="L100" s="46"/>
@@ -5842,20 +5971,22 @@
         <v>168</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1" t="e">
+      <c r="D101" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="102"/>
+      <c r="F101" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G101" s="1" t="e">
+      <c r="G101" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="44"/>
+      <c r="H101" s="102"/>
+      <c r="I101" s="103" t="s">
+        <v>221</v>
+      </c>
       <c r="J101" s="1"/>
       <c r="K101" s="45">
         <v>4</v>
@@ -5866,27 +5997,27 @@
       </c>
       <c r="M101" s="47">
         <f>VLOOKUP(D101,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N101" s="47">
         <f>M101*L101</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O101" s="47">
         <f>IF(M101=0,0,L101*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="12" customHeight="1">
       <c r="A102" s="40"/>
       <c r="B102" s="49"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="D102" s="104"/>
+      <c r="E102" s="102"/>
+      <c r="F102" s="102"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="102"/>
+      <c r="I102" s="102"/>
       <c r="J102" s="1"/>
       <c r="K102" s="45"/>
       <c r="L102" s="46"/>
@@ -5903,20 +6034,22 @@
         <v>170</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1" t="e">
+      <c r="D103" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="102"/>
+      <c r="F103" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G103" s="1" t="e">
+      <c r="G103" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H103" s="1"/>
-      <c r="I103" s="44"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="103" t="s">
+        <v>222</v>
+      </c>
       <c r="J103" s="1"/>
       <c r="K103" s="45">
         <v>3</v>
@@ -5927,27 +6060,27 @@
       </c>
       <c r="M103" s="47">
         <f>VLOOKUP(D103,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N103" s="47">
         <f>M103*L103</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O103" s="47">
         <f>IF(M103=0,0,L103*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="12" customHeight="1">
       <c r="A104" s="40"/>
       <c r="B104" s="49"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="D104" s="104"/>
+      <c r="E104" s="102"/>
+      <c r="F104" s="102"/>
+      <c r="G104" s="102"/>
+      <c r="H104" s="102"/>
+      <c r="I104" s="102"/>
       <c r="J104" s="1"/>
       <c r="K104" s="45"/>
       <c r="L104" s="46"/>
@@ -5964,20 +6097,22 @@
         <v>172</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1" t="e">
+      <c r="D105" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="102"/>
+      <c r="F105" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G105" s="1" t="e">
+      <c r="G105" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H105" s="1"/>
-      <c r="I105" s="44"/>
+      <c r="H105" s="102"/>
+      <c r="I105" s="103" t="s">
+        <v>223</v>
+      </c>
       <c r="J105" s="1"/>
       <c r="K105" s="45">
         <v>3</v>
@@ -5988,27 +6123,27 @@
       </c>
       <c r="M105" s="47">
         <f>VLOOKUP(D105,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N105" s="47">
         <f>M105*L105</f>
-        <v>0</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="O105" s="47">
         <f>IF(M105=0,0,L105*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="12" customHeight="1">
       <c r="A106" s="40"/>
       <c r="B106" s="49"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="D106" s="104"/>
+      <c r="E106" s="102"/>
+      <c r="F106" s="102"/>
+      <c r="G106" s="102"/>
+      <c r="H106" s="102"/>
+      <c r="I106" s="102"/>
       <c r="J106" s="1"/>
       <c r="K106" s="45"/>
       <c r="L106" s="46"/>
@@ -6025,20 +6160,22 @@
         <v>174</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1" t="e">
+      <c r="D107" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G107" s="1" t="e">
+      <c r="G107" s="102" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H107" s="1"/>
-      <c r="I107" s="44"/>
+      <c r="H107" s="102"/>
+      <c r="I107" s="103" t="s">
+        <v>224</v>
+      </c>
       <c r="J107" s="1"/>
       <c r="K107" s="45">
         <v>2</v>
@@ -6049,26 +6186,26 @@
       </c>
       <c r="M107" s="47">
         <f>VLOOKUP(D107,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N107" s="47">
         <f>M107*L107</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O107" s="47">
         <f>IF(M107=0,0,L107*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="12" customHeight="1">
       <c r="B108" s="32"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="D108" s="104"/>
+      <c r="E108" s="102"/>
+      <c r="F108" s="102"/>
+      <c r="G108" s="102"/>
+      <c r="H108" s="102"/>
+      <c r="I108" s="102"/>
       <c r="J108" s="1"/>
       <c r="K108" s="45"/>
       <c r="L108" s="46"/>
@@ -6081,12 +6218,12 @@
         <v>83</v>
       </c>
       <c r="C109" s="38"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="102"/>
+      <c r="G109" s="102"/>
+      <c r="H109" s="102"/>
+      <c r="I109" s="102"/>
       <c r="J109" s="1"/>
       <c r="K109" s="45"/>
       <c r="L109" s="46"/>
@@ -6097,12 +6234,12 @@
     <row r="110" spans="1:26" ht="14.25" customHeight="1">
       <c r="B110" s="56"/>
       <c r="C110" s="38"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="102"/>
+      <c r="I110" s="102"/>
       <c r="J110" s="1"/>
       <c r="K110" s="45"/>
       <c r="L110" s="46"/>
@@ -6119,20 +6256,22 @@
         <v>175</v>
       </c>
       <c r="C111" s="13"/>
-      <c r="D111" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13" t="e">
+      <c r="D111" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="107"/>
+      <c r="F111" s="107" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G111" s="13" t="e">
+      <c r="G111" s="107" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H111" s="13"/>
-      <c r="I111" s="44"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="103" t="s">
+        <v>225</v>
+      </c>
       <c r="J111" s="13"/>
       <c r="K111" s="34">
         <v>4</v>
@@ -6143,15 +6282,15 @@
       </c>
       <c r="M111" s="66">
         <f>VLOOKUP(D111,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N111" s="66">
         <f>M111*L111</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O111" s="66">
         <f>IF(M111=0,0,L111*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P111" s="13"/>
       <c r="Q111" s="13"/>
@@ -6169,12 +6308,12 @@
       <c r="A112" s="40"/>
       <c r="B112" s="49"/>
       <c r="C112" s="13"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="107"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="107"/>
+      <c r="I112" s="107"/>
       <c r="J112" s="13"/>
       <c r="K112" s="34"/>
       <c r="L112" s="65"/>
@@ -6202,20 +6341,22 @@
         <v>178</v>
       </c>
       <c r="C113" s="13"/>
-      <c r="D113" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13" t="e">
+      <c r="D113" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="107"/>
+      <c r="F113" s="107" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G113" s="13" t="e">
+      <c r="G113" s="107" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="44"/>
+      <c r="H113" s="107"/>
+      <c r="I113" s="103" t="s">
+        <v>226</v>
+      </c>
       <c r="J113" s="13"/>
       <c r="K113" s="34">
         <v>4</v>
@@ -6226,15 +6367,15 @@
       </c>
       <c r="M113" s="66">
         <f>VLOOKUP(D113,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N113" s="66">
         <f>M113*L113</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O113" s="66">
         <f>IF(M113=0,0,L113*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P113" s="13"/>
       <c r="Q113" s="13"/>
@@ -6252,12 +6393,12 @@
       <c r="A114" s="40"/>
       <c r="B114" s="49"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="107"/>
+      <c r="F114" s="107"/>
+      <c r="G114" s="107"/>
+      <c r="H114" s="107"/>
+      <c r="I114" s="107"/>
       <c r="J114" s="13"/>
       <c r="K114" s="34"/>
       <c r="L114" s="65"/>
@@ -6285,20 +6426,22 @@
         <v>179</v>
       </c>
       <c r="C115" s="13"/>
-      <c r="D115" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13" t="e">
+      <c r="D115" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="107"/>
+      <c r="F115" s="107" t="e">
         <f>#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G115" s="13" t="e">
+      <c r="G115" s="107" t="e">
         <f>IF(#REF!&gt;=0,10*#REF!,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="44"/>
+      <c r="H115" s="107"/>
+      <c r="I115" s="103" t="s">
+        <v>227</v>
+      </c>
       <c r="J115" s="13"/>
       <c r="K115" s="34">
         <v>3</v>
@@ -6309,15 +6452,15 @@
       </c>
       <c r="M115" s="66">
         <f>VLOOKUP(D115,Q1:R9,2,FALSE)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N115" s="66">
         <f>M115*L115</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O115" s="66">
         <f>IF(M115=0,0,L115*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115" s="13"/>
       <c r="Q115" s="13"/>
@@ -6351,26 +6494,26 @@
       <c r="A117" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B117" s="72"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="74">
+      <c r="B117" s="71"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="73">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>81.165048543689309</v>
-      </c>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="76" t="str">
+        <v>83.496503496503493</v>
+      </c>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="75" t="str">
         <f>IF(D117="","","-")</f>
         <v>-</v>
       </c>
-      <c r="I117" s="77" t="str">
+      <c r="I117" s="76" t="str">
         <f>VLOOKUP(J117,'Rating ranges'!A2:B7,2,TRUE)</f>
         <v>Good</v>
       </c>
       <c r="J117" s="7">
         <f>IF(D117="",0,D117)</f>
-        <v>81.165048543689309</v>
+        <v>83.496503496503493</v>
       </c>
       <c r="K117" s="68">
         <f>MAX(K9:K115)</f>
@@ -6380,11 +6523,11 @@
       <c r="M117" s="68"/>
       <c r="N117" s="69">
         <f t="shared" ref="N117:O117" si="0">SUM(N9:N115)</f>
-        <v>83.6</v>
+        <v>119.39999999999999</v>
       </c>
       <c r="O117" s="69">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
@@ -6400,90 +6543,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="88" t="str">
+      <c r="A119" s="89" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="90"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="91"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="91" t="str">
+      <c r="A120" s="92" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="92"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="93"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="93" t="str">
+      <c r="A121" s="94" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="92"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="93"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="91" t="str">
+      <c r="A122" s="92" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="92"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="93"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="94" t="str">
+      <c r="A123" s="95" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="96"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="97"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -6502,13 +6645,13 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B125" s="78" t="s">
+      <c r="B125" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="82" t="s">
+      <c r="C125" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="D125" s="79"/>
+      <c r="D125" s="78"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -6521,17 +6664,17 @@
     </row>
     <row r="126" spans="1:26" ht="12.75" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="80"/>
-      <c r="C126" s="84" t="s">
+      <c r="B126" s="79"/>
+      <c r="C126" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="81"/>
-      <c r="I126" s="81"/>
-      <c r="J126" s="83"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="80"/>
+      <c r="I126" s="80"/>
+      <c r="J126" s="82"/>
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
       <c r="M126" s="1"/>
@@ -17026,33 +17169,46 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A120:I120"/>
     <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Enter score"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D18 D54 D74 D96" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Enter score"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D18 D54 D74" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$Q$1:$Q$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Invalid score entered - Score must be one of:_x000a__x000a_Very poor_x000a_Poor_x000a_Moderate_x000a_Good_x000a_Excellent_x000a_N/A" sqref="D24 D32" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$Q$1:$Q$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Invalid score entered - Score must be one of:_x000a__x000a_Very poor_x000a_Poor_x000a_Moderate_x000a_Good_x000a_Excellent_x000a_N/A" sqref="D9 D11 D13 D15 D17 D21 D23 D25 D29 D31 D33 D35 D37 D39 D41 D43 D45 D49 D51 D53 D55 D59 D61 D63 D67 D69 D71 D73 D75 D79 D81 D83 D85 D89 D91 D93 D95 D97 D101 D103 D105 D107 D111 D113 D115" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Invalid score entered - Score must be one of:_x000a__x000a_Very poor_x000a_Poor_x000a_Moderate_x000a_Good_x000a_Excellent_x000a_N/A" sqref="D9 D11 D13 D15 D17 D21 D23 D25 D29 D31 D33 D35 D37 D39 D41 D43 D45 D49 D51 D53 D55 D59 D61 D63 D67 D69 D71 D73 D75 D79 D81 D83 D85" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$Q$1:$Q$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Invalid score entered - Score must be one of:_x000a__x000a_Very poor_x000a_Poor_x000a_Moderate_x000a_Good_x000a_Excellent_x000a_N/A" sqref="D89 D91 D93 D95 D97 D101 D103 D105 D107 D111 D113 D115" xr:uid="{3787896F-2C73-405D-B7EA-D4112E529A47}">
+      <formula1>$Q$1:$Q$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D96" xr:uid="{C644EDA6-CDA2-41ED-907C-6D2677F7D98A}">
+      <formula1>$Q$1:$Q$8</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -17090,17 +17246,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
@@ -17147,10 +17303,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -17277,19 +17433,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="99" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -17314,11 +17470,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -20489,20 +20645,20 @@
       <c r="A117" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B117" s="72"/>
-      <c r="C117" s="73"/>
-      <c r="D117" s="74" t="str">
+      <c r="B117" s="71"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="73" t="str">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
         <v/>
       </c>
-      <c r="E117" s="75"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="76" t="str">
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="75" t="str">
         <f>IF(D117="","","-")</f>
         <v/>
       </c>
-      <c r="I117" s="77" t="str">
+      <c r="I117" s="76" t="str">
         <f>VLOOKUP(J117,'Rating ranges'!A2:B7,2,TRUE)</f>
         <v/>
       </c>
@@ -20538,90 +20694,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="88" t="str">
+      <c r="A119" s="89" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="89"/>
-      <c r="C119" s="89"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="89"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="90"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="91"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="91" t="str">
+      <c r="A120" s="92" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="86"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="86"/>
-      <c r="G120" s="86"/>
-      <c r="H120" s="86"/>
-      <c r="I120" s="92"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="93"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="93" t="str">
+      <c r="A121" s="94" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="86"/>
-      <c r="C121" s="86"/>
-      <c r="D121" s="86"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="86"/>
-      <c r="G121" s="86"/>
-      <c r="H121" s="86"/>
-      <c r="I121" s="92"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="93"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="91" t="str">
+      <c r="A122" s="92" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="86"/>
-      <c r="C122" s="86"/>
-      <c r="D122" s="86"/>
-      <c r="E122" s="86"/>
-      <c r="F122" s="86"/>
-      <c r="G122" s="86"/>
-      <c r="H122" s="86"/>
-      <c r="I122" s="92"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="93"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="94" t="str">
+      <c r="A123" s="95" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="95"/>
-      <c r="H123" s="95"/>
-      <c r="I123" s="96"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="97"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -20640,7 +20796,7 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="1:26" ht="13.5" customHeight="1">
-      <c r="D125" s="79"/>
+      <c r="D125" s="78"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -20653,15 +20809,15 @@
     </row>
     <row r="126" spans="1:26" ht="12.75" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="80"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="81"/>
-      <c r="H126" s="81"/>
-      <c r="I126" s="81"/>
-      <c r="J126" s="83"/>
+      <c r="B126" s="79"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="80"/>
+      <c r="I126" s="80"/>
+      <c r="J126" s="82"/>
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
       <c r="M126" s="1"/>
@@ -31156,6 +31312,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="A1:I1"/>
@@ -31163,14 +31324,9 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
   </mergeCells>
   <conditionalFormatting sqref="D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Enter score"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31207,11 +31363,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -35835,7 +35991,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:C24 C27:C30 C33:C35 C38:C42 C45:C48 C51:C55 C58:C61 C64:C66 C4:C8 C11:C13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Enter score"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35868,12 +36024,12 @@
       <c r="B1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="61">
